--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.07024133333333</v>
+        <v>2.510724666666666</v>
       </c>
       <c r="H2">
-        <v>87.210724</v>
+        <v>7.532173999999999</v>
       </c>
       <c r="I2">
-        <v>0.4171675701339755</v>
+        <v>0.05821931136168832</v>
       </c>
       <c r="J2">
-        <v>0.4171675701339755</v>
+        <v>0.05821931136168832</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>612.8534110343649</v>
+        <v>8.677730626944888</v>
       </c>
       <c r="R2">
-        <v>5515.680699309284</v>
+        <v>78.09957564250399</v>
       </c>
       <c r="S2">
-        <v>0.02384554921840408</v>
+        <v>0.0005729674374643812</v>
       </c>
       <c r="T2">
-        <v>0.02384554921840407</v>
+        <v>0.0005729674374643811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.07024133333333</v>
+        <v>2.510724666666666</v>
       </c>
       <c r="H3">
-        <v>87.210724</v>
+        <v>7.532173999999999</v>
       </c>
       <c r="I3">
-        <v>0.4171675701339755</v>
+        <v>0.05821931136168832</v>
       </c>
       <c r="J3">
-        <v>0.4171675701339755</v>
+        <v>0.05821931136168832</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>8767.589107909211</v>
+        <v>757.2349327277337</v>
       </c>
       <c r="R3">
-        <v>78908.3019711829</v>
+        <v>6815.114394549603</v>
       </c>
       <c r="S3">
-        <v>0.341138637454152</v>
+        <v>0.04999820547740057</v>
       </c>
       <c r="T3">
-        <v>0.341138637454152</v>
+        <v>0.04999820547740057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.07024133333333</v>
+        <v>2.510724666666666</v>
       </c>
       <c r="H4">
-        <v>87.210724</v>
+        <v>7.532173999999999</v>
       </c>
       <c r="I4">
-        <v>0.4171675701339755</v>
+        <v>0.05821931136168832</v>
       </c>
       <c r="J4">
-        <v>0.4171675701339755</v>
+        <v>0.05821931136168832</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>1341.162841783586</v>
+        <v>115.8329093409251</v>
       </c>
       <c r="R4">
-        <v>12070.46557605228</v>
+        <v>1042.496184068326</v>
       </c>
       <c r="S4">
-        <v>0.05218338346141948</v>
+        <v>0.007648138446823369</v>
       </c>
       <c r="T4">
-        <v>0.05218338346141947</v>
+        <v>0.007648138446823367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>84.30924400000001</v>
       </c>
       <c r="I5">
-        <v>0.4032885045113541</v>
+        <v>0.6516612769572973</v>
       </c>
       <c r="J5">
-        <v>0.4032885045113541</v>
+        <v>0.6516612769572973</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>592.4639241285116</v>
+        <v>97.13170577224712</v>
       </c>
       <c r="R5">
-        <v>5332.175317156604</v>
+        <v>874.185351950224</v>
       </c>
       <c r="S5">
-        <v>0.02305221347971425</v>
+        <v>0.006413347791652087</v>
       </c>
       <c r="T5">
-        <v>0.02305221347971425</v>
+        <v>0.006413347791652086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>84.30924400000001</v>
       </c>
       <c r="I6">
-        <v>0.4032885045113541</v>
+        <v>0.6516612769572973</v>
       </c>
       <c r="J6">
-        <v>0.4032885045113541</v>
+        <v>0.6516612769572973</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>8475.893508124758</v>
@@ -818,10 +818,10 @@
         <v>76283.04157312283</v>
       </c>
       <c r="S6">
-        <v>0.3297890362995913</v>
+        <v>0.5596406701645902</v>
       </c>
       <c r="T6">
-        <v>0.3297890362995913</v>
+        <v>0.5596406701645902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>84.30924400000001</v>
       </c>
       <c r="I7">
-        <v>0.4032885045113541</v>
+        <v>0.6516612769572973</v>
       </c>
       <c r="J7">
-        <v>0.4032885045113541</v>
+        <v>0.6516612769572973</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>1296.542673715973</v>
@@ -880,10 +880,10 @@
         <v>11668.88406344376</v>
       </c>
       <c r="S7">
-        <v>0.05044725473204855</v>
+        <v>0.08560725900105501</v>
       </c>
       <c r="T7">
-        <v>0.05044725473204855</v>
+        <v>0.08560725900105499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>37.534451</v>
       </c>
       <c r="I8">
-        <v>0.1795439253546705</v>
+        <v>0.2901194116810145</v>
       </c>
       <c r="J8">
-        <v>0.1795439253546705</v>
+        <v>0.2901194116810145</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>263.7647673542102</v>
+        <v>43.24300726566621</v>
       </c>
       <c r="R8">
-        <v>2373.882906187891</v>
+        <v>389.1870653909959</v>
       </c>
       <c r="S8">
-        <v>0.01026283876173619</v>
+        <v>0.002855220578561034</v>
       </c>
       <c r="T8">
-        <v>0.01026283876173618</v>
+        <v>0.002855220578561034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.534451</v>
       </c>
       <c r="I9">
-        <v>0.1795439253546705</v>
+        <v>0.2901194116810145</v>
       </c>
       <c r="J9">
-        <v>0.1795439253546705</v>
+        <v>0.2901194116810145</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
-        <v>3773.465333907239</v>
+        <v>3773.465333907238</v>
       </c>
       <c r="R9">
-        <v>33961.18800516515</v>
+        <v>33961.18800516514</v>
       </c>
       <c r="S9">
-        <v>0.146821983403436</v>
+        <v>0.2491518642000866</v>
       </c>
       <c r="T9">
-        <v>0.146821983403436</v>
+        <v>0.2491518642000866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.534451</v>
       </c>
       <c r="I10">
-        <v>0.1795439253546705</v>
+        <v>0.2901194116810145</v>
       </c>
       <c r="J10">
-        <v>0.1795439253546705</v>
+        <v>0.2901194116810145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
-        <v>577.2204226620889</v>
+        <v>577.2204226620888</v>
       </c>
       <c r="R10">
-        <v>5194.9838039588</v>
+        <v>5194.983803958799</v>
       </c>
       <c r="S10">
-        <v>0.02245910318949835</v>
+        <v>0.03811232690236681</v>
       </c>
       <c r="T10">
-        <v>0.02245910318949835</v>
+        <v>0.0381123269023668</v>
       </c>
     </row>
   </sheetData>
